--- a/trunk/MTPO/MTPO-nocs-framecounts.xlsx
+++ b/trunk/MTPO/MTPO-nocs-framecounts.xlsx
@@ -460,8 +460,8 @@
   <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -627,63 +627,105 @@
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B13" s="3">
+        <v>34057</v>
+      </c>
+      <c r="C13" s="3">
+        <v>34073</v>
+      </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B14" s="3">
+        <v>37612</v>
+      </c>
+      <c r="C14" s="3">
+        <v>37628</v>
+      </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B15" s="3">
+        <v>42287</v>
+      </c>
+      <c r="C15" s="3">
+        <v>42303</v>
+      </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B16" s="3">
+        <v>46882</v>
+      </c>
+      <c r="C16" s="3">
+        <v>46914</v>
+      </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B17" s="3">
+        <v>54517</v>
+      </c>
+      <c r="C17" s="3">
+        <v>54549</v>
+      </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B18" s="3">
+        <v>60116</v>
+      </c>
+      <c r="C18" s="3">
+        <v>60148</v>
+      </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B19" s="3">
+        <v>64168</v>
+      </c>
+      <c r="C19" s="3">
+        <v>64200</v>
+      </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4">
